--- a/Daily Task   - NikhilS.xlsx
+++ b/Daily Task   - NikhilS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="737">
   <si>
     <t>Date</t>
   </si>
@@ -1140,6 +1140,46 @@
         echo 'dummy';
         return ob_get_clean();
   }</t>
+  </si>
+  <si>
+    <t>find text</t>
+  </si>
+  <si>
+    <t>jQuery('.course-title').each(function(){
+    if(jQuery(this).find(':contains("ReCh")').length){
+        jQuery(this).hide()
+    }
+})</t>
+  </si>
+  <si>
+    <t>format string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $formatted_phone_number = sprintf(
+                        "(%s) %s-%s",
+                        substr($phone_number, 0, 3),
+                        substr($phone_number, 3, 3),
+                        substr($phone_number, 6)
+                        // substr($phone_number, 6)
+                );
+</t>
+  </si>
+  <si>
+    <t>Carousel with image navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jQuery(".project-single .slider").slick({
+    slidesToShow: 1,
+    slidesToScroll: 1,
+    fade: false,
+    // asNavFor: ".slider-nav",
+  });
+  jQuery(".project-single .slider-nav").slick({
+    slidesToShow: 2,
+    slidesToScroll: 1,
+    asNavFor: ".slider",
+    focusOnSelect: true,
+  });</t>
   </si>
   <si>
     <t>Home Page</t>
@@ -8448,12 +8488,18 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" ht="75.0" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="4">
+        <v>45267.0</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="G71" s="6"/>
       <c r="H71" s="20" t="s">
         <v>11</v>
@@ -8461,9 +8507,15 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" ht="75.0" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="4">
+        <v>45267.0</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -8474,9 +8526,15 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" ht="75.0" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="A73" s="4">
+        <v>45272.0</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -17728,34 +17786,34 @@
         <v>1.0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H1" s="32">
         <v>95.0</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -17767,34 +17825,34 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H2" s="32">
         <v>53.0</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
@@ -17806,34 +17864,34 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H3" s="29">
         <v>139.0</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -17845,34 +17903,34 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H4" s="29">
         <v>58.0</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -17884,34 +17942,34 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>241</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H5" s="29">
         <v>54.0</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
@@ -17923,34 +17981,34 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H6" s="29">
         <v>76.0</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -17962,34 +18020,34 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H7" s="29">
         <v>63.0</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
@@ -18001,34 +18059,34 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H8" s="29">
         <v>90.0</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -18040,34 +18098,34 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H9" s="29">
         <v>34.0</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -18079,34 +18137,34 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D10" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>283</v>
       </c>
       <c r="H10" s="29">
         <v>34.0</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -18118,34 +18176,34 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H11" s="29">
         <v>34.0</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -18154,3727 +18212,3727 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="5" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="5" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="5" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="5" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="5" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="5" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="5" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="5" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="5" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="5" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="5" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="5" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="5" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="5" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="5" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="5" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="5" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="5" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="5" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="5" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="5" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="5" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="5" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="5" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="5" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="5" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="5" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="5" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="5" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="5" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="5" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="5" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="5" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="5" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="5" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="5" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="5" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="5" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="5" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="5" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="5" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="5" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="5" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="5" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="5" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="5" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="5" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="5" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="5" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="5" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="5" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="5" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="5" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="5" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="5" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="5" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="5" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="5" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="5" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="5" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="5" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="5" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="5" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="5" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="5" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="5" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="5" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="5" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="5" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="5" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="5" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="5" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="5" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="5" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="5" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="5" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="5" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="5" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="5" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="5" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="5" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="5" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="5" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="5" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="5" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="5" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="5" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="5" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="5" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="5" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="5" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="5" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="5" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="5" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="5" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="5" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="5" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="5" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="5" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="5" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="5" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="5" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="5" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="5" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="5" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="5" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="5" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="5" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="5" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="5" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="5" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="5" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="5" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="5" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="5" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="5" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="5" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="5" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="5" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="5" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="5" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="5" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="5" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="5" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="5" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="5" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="5" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="5" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="5" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="5" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="5" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="5" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="5" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="5" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="5" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="5" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="5" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="5" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="5" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="5" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="5" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="5" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="5" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="5" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="5" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="5" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="5" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="5" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="5" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="5" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="5" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="5" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="5" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="5" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="5" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="5" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="5" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="5" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="5" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="5" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="5" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="5" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="5" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="5" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="5" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="5" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="5" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="5" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="5" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="5" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="5" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="5" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="5" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="5" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="5" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="5" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="5" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="5" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="5" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="5" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="5" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="5" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="5" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="5" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="5" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="5" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="5" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="5" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="5" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="5" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="5" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="5" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="5" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="5" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="5" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="5" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -21929,19 +21987,19 @@
   <sheetData>
     <row r="1" ht="75.0" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="5"/>
@@ -21950,12 +22008,12 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -21965,13 +22023,13 @@
     </row>
     <row r="3" ht="75.0" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -21979,13 +22037,13 @@
     </row>
     <row r="4" ht="75.0" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -21996,13 +22054,13 @@
     </row>
     <row r="5" ht="75.0" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -22013,43 +22071,43 @@
     </row>
     <row r="6" ht="75.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" ht="75.0" customHeight="1">
@@ -22112,13 +22170,13 @@
         <v>45154.0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -22131,11 +22189,11 @@
         <v>45160.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
